--- a/data/xlsx/2023-23.xlsx
+++ b/data/xlsx/2023-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02D5CAF-FCBF-9B46-BA5F-534CDC6E1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42240E9D-1091-3C45-A3DF-7AF41AAA5973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="183">
   <si>
     <t>match</t>
   </si>
@@ -3775,9 +3775,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F199F8F-C1A7-A246-B5FD-A27AFF7CA6F3}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3853,114 +3853,178 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>22</v>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3971,16 +4035,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
+      <c r="F9" t="s">
+        <v>159</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
@@ -4004,19 +4068,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
@@ -4026,147 +4090,9 @@
         <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4372,9 +4298,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DCB2BF-4D33-6142-AE6F-0C079B7BD624}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4420,41 +4346,151 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4462,37 +4498,37 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4503,19 +4539,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -4538,22 +4568,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>8</v>
@@ -4565,146 +4592,6 @@
         <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6112,7 +5999,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD50907-0ADD-4047-8564-5402A5BBB66C}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6159,103 +6046,204 @@
         <v>84</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E3"/>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6"/>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
@@ -6283,13 +6271,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" t="s">
@@ -6307,147 +6295,11 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/2023-23.xlsx
+++ b/data/xlsx/2023-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42240E9D-1091-3C45-A3DF-7AF41AAA5973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BBB55E-D216-734E-8549-DF986F6B1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="10" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="182">
   <si>
     <t>match</t>
   </si>
@@ -406,9 +406,6 @@
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>VincentAngotti</t>
-  </si>
-  <si>
     <t>12:09</t>
   </si>
   <si>
@@ -532,9 +529,6 @@
     <t>Ben Overmann</t>
   </si>
   <si>
-    <t>Adam Klevin</t>
-  </si>
-  <si>
     <t>Bill Oehlschlager</t>
   </si>
   <si>
@@ -602,6 +596,9 @@
   </si>
   <si>
     <t>Colin Barrett</t>
+  </si>
+  <si>
+    <t>Adam Kleven</t>
   </si>
 </sst>
 </file>
@@ -1040,29 +1037,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1073,7 +1070,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1418,7 +1415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDABC3D2-98DC-264B-8BC4-5CC6DCBBC567}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1563,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1598,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
@@ -1633,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -1742,7 +1741,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -1814,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1823,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -1885,10 +1884,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>83</v>
@@ -1914,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>35</v>
@@ -1970,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2073,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -2111,7 +2110,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
@@ -2143,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -2175,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -2250,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2353,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -2388,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -2452,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>82</v>
@@ -2481,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>53</v>
@@ -2510,10 +2509,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>82</v>
@@ -2587,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2755,7 +2754,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -2791,16 +2790,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>25</v>
@@ -2829,9 +2828,11 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12"/>
+        <v>137</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" s="5" t="s">
@@ -2895,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2925,12 +2926,12 @@
         <v>41</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
@@ -3007,7 +3008,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3067,7 +3068,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>79</v>
@@ -3153,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>96</v>
@@ -3188,10 +3189,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -3223,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
@@ -3258,7 +3259,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
@@ -3293,7 +3294,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>96</v>
@@ -3328,10 +3329,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -3363,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>57</v>
@@ -3437,7 +3438,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3583,7 +3584,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>78</v>
@@ -3618,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>115</v>
@@ -3653,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
@@ -3826,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3900,7 +3901,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>96</v>
@@ -3933,13 +3934,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>33</v>
@@ -3969,7 +3970,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>114</v>
@@ -4002,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -4038,13 +4039,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
@@ -4071,10 +4072,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -4105,7 +4106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998BB19-9353-E343-B3E3-6242F0EC3A20}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4132,10 +4135,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -4146,10 +4149,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
@@ -4174,24 +4177,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -4211,7 +4214,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4230,16 +4233,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4250,10 +4253,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4264,7 +4267,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -4272,7 +4275,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -4280,10 +4283,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4300,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DCB2BF-4D33-6142-AE6F-0C079B7BD624}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4396,7 +4399,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>36</v>
@@ -4513,7 +4516,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -4604,7 +4607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BF3402-7A15-F246-8357-B3102C449763}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4823,7 +4828,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>54</v>
@@ -4867,7 +4872,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -4899,7 +4904,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -5097,7 +5102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190A40CC-C2E9-ED42-AA68-C993BA5B7397}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5313,7 +5320,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -5345,7 +5352,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -6101,13 +6108,13 @@
         <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" t="s">
@@ -6175,7 +6182,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
@@ -6243,7 +6250,7 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" t="s">
@@ -6461,7 +6468,7 @@
         <v>98</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>104</v>
@@ -6572,7 +6579,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>106</v>

--- a/data/xlsx/2023-23.xlsx
+++ b/data/xlsx/2023-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BBB55E-D216-734E-8549-DF986F6B1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498EDED-9CCE-8C44-ABE5-121679FE674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="10" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="180">
   <si>
     <t>match</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Mike Campbell</t>
   </si>
   <si>
-    <t>Chris Matrianiano</t>
-  </si>
-  <si>
     <t>Jay Shalaty</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
   </si>
   <si>
     <t>Meredith Henkleman</t>
-  </si>
-  <si>
-    <t>Oleg Fastovski</t>
   </si>
   <si>
     <t>Tara Laux</t>
@@ -1037,29 +1031,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1070,7 +1064,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -1081,7 +1075,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1415,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDABC3D2-98DC-264B-8BC4-5CC6DCBBC567}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3192,7 +3186,7 @@
         <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -3332,7 +3326,7 @@
         <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -4045,7 +4039,7 @@
         <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
@@ -4106,16 +4100,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998BB19-9353-E343-B3E3-6242F0EC3A20}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -4138,7 +4130,7 @@
         <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -4186,7 +4178,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,7 +4206,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4233,16 +4225,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,10 +4245,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4267,7 +4259,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -4283,10 +4275,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4399,7 +4391,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>36</v>
@@ -4516,7 +4508,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -4828,7 +4820,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>54</v>
@@ -4872,7 +4864,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -4904,7 +4896,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -5320,7 +5312,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -5352,7 +5344,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -6108,7 +6100,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>96</v>
@@ -6182,7 +6174,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
@@ -6468,7 +6460,7 @@
         <v>98</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>104</v>
@@ -6579,7 +6571,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>106</v>

--- a/data/xlsx/2023-23.xlsx
+++ b/data/xlsx/2023-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498EDED-9CCE-8C44-ABE5-121679FE674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18E79B-1C0B-DB46-BFF5-B9D7DFEA2949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="182">
   <si>
     <t>match</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>Adam Kleven</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Free Agent 2023-23</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F54802-552D-1445-A71E-EC729A579A45}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1082,6 +1088,14 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4098,9 +4112,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998BB19-9353-E343-B3E3-6242F0EC3A20}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4111,7 +4127,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4124,8 +4140,11 @@
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
@@ -4138,8 +4157,11 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -4152,8 +4174,11 @@
       <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -4166,8 +4191,11 @@
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -4181,7 +4209,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>162</v>
       </c>
@@ -4195,7 +4223,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
@@ -4209,7 +4237,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -4223,7 +4251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
@@ -4237,7 +4265,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4251,7 +4279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -4265,7 +4293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -4273,7 +4301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -4281,7 +4309,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>96</v>
       </c>

--- a/data/xlsx/2023-23.xlsx
+++ b/data/xlsx/2023-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18E79B-1C0B-DB46-BFF5-B9D7DFEA2949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B3FD6-0F48-F240-930C-8320F0D22CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
   </bookViews>
@@ -562,9 +562,6 @@
     <t>Katy Meyvn</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>Tara Laux</t>
   </si>
   <si>
@@ -599,6 +596,9 @@
   </si>
   <si>
     <t>Free Agent 2023-23</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1037,29 +1037,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3200,7 @@
         <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -3340,7 +3340,7 @@
         <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -4053,7 +4053,7 @@
         <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
@@ -4141,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
         <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -4287,7 +4287,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>36</v>
@@ -4536,7 +4536,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -4848,7 +4848,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>54</v>
@@ -4892,7 +4892,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -4924,7 +4924,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -5340,7 +5340,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -5372,7 +5372,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -6128,7 +6128,7 @@
         <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>96</v>
@@ -6202,7 +6202,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" t="s">
@@ -6488,7 +6488,7 @@
         <v>98</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>104</v>
@@ -6599,7 +6599,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>106</v>

--- a/data/xlsx/2023-23.xlsx
+++ b/data/xlsx/2023-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B3FD6-0F48-F240-930C-8320F0D22CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838234FD-AE62-8A4B-8A9E-C577E3526289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{BF4E40AE-7CFA-7F40-A9F3-50068B20EA9B}"/>
   </bookViews>
@@ -4114,9 +4114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998BB19-9353-E343-B3E3-6242F0EC3A20}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
